--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Robo2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Robo2-Robo2.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="H2">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="I2">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="J2">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N2">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O2">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P2">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q2">
-        <v>2.741106281888445</v>
+        <v>1.697445048173444</v>
       </c>
       <c r="R2">
-        <v>24.669956536996</v>
+        <v>15.277005433561</v>
       </c>
       <c r="S2">
-        <v>0.9582139612212672</v>
+        <v>0.9349806815299742</v>
       </c>
       <c r="T2">
-        <v>0.9582139612212675</v>
+        <v>0.9349806815299739</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="H3">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="I3">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="J3">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,22 +617,22 @@
         <v>0.03365</v>
       </c>
       <c r="O3">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P3">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q3">
-        <v>0.01857063487777778</v>
+        <v>0.01461375007222222</v>
       </c>
       <c r="R3">
-        <v>0.1671357139</v>
+        <v>0.13152375065</v>
       </c>
       <c r="S3">
-        <v>0.006491773677732011</v>
+        <v>0.008049494160024732</v>
       </c>
       <c r="T3">
-        <v>0.006491773677732012</v>
+        <v>0.008049494160024732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="H4">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="I4">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="J4">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -673,28 +673,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N4">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O4">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P4">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q4">
-        <v>0.04055903919977778</v>
+        <v>0.04341521488766666</v>
       </c>
       <c r="R4">
-        <v>0.365031352798</v>
+        <v>0.390736933989</v>
       </c>
       <c r="S4">
-        <v>0.01417830380081898</v>
+        <v>0.02391381520604792</v>
       </c>
       <c r="T4">
-        <v>0.01417830380081898</v>
+        <v>0.02391381520604792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.03365</v>
       </c>
       <c r="I5">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="J5">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N5">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O5">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P5">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q5">
-        <v>0.01857063487777778</v>
+        <v>0.01461375007222222</v>
       </c>
       <c r="R5">
-        <v>0.1671357139</v>
+        <v>0.13152375065</v>
       </c>
       <c r="S5">
-        <v>0.006491773677732011</v>
+        <v>0.008049494160024732</v>
       </c>
       <c r="T5">
-        <v>0.006491773677732012</v>
+        <v>0.008049494160024732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>0.03365</v>
       </c>
       <c r="I6">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="J6">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,10 +803,10 @@
         <v>0.03365</v>
       </c>
       <c r="O6">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P6">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q6">
         <v>0.0001258136111111111</v>
@@ -815,10 +815,10 @@
         <v>0.0011323225</v>
       </c>
       <c r="S6">
-        <v>4.398091364603136E-05</v>
+        <v>6.930020856286007E-05</v>
       </c>
       <c r="T6">
-        <v>4.398091364603136E-05</v>
+        <v>6.930020856286007E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>0.03365</v>
       </c>
       <c r="I7">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="J7">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -859,28 +859,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N7">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O7">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P7">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q7">
-        <v>0.0002747821611111111</v>
+        <v>0.0003737729833333333</v>
       </c>
       <c r="R7">
-        <v>0.00247303945</v>
+        <v>0.00336395685</v>
       </c>
       <c r="S7">
-        <v>9.605614521806192E-05</v>
+        <v>0.0002058803135162127</v>
       </c>
       <c r="T7">
-        <v>9.605614521806192E-05</v>
+        <v>0.0002058803135162127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,16 +903,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="H8">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="I8">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="J8">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.655628666666667</v>
+        <v>1.302860333333333</v>
       </c>
       <c r="N8">
-        <v>4.966886000000001</v>
+        <v>3.908581</v>
       </c>
       <c r="O8">
-        <v>0.9788840386998182</v>
+        <v>0.9669439908960468</v>
       </c>
       <c r="P8">
-        <v>0.9788840386998183</v>
+        <v>0.9669439908960467</v>
       </c>
       <c r="Q8">
-        <v>0.04055903919977778</v>
+        <v>0.04341521488766666</v>
       </c>
       <c r="R8">
-        <v>0.365031352798</v>
+        <v>0.390736933989</v>
       </c>
       <c r="S8">
-        <v>0.01417830380081898</v>
+        <v>0.02391381520604792</v>
       </c>
       <c r="T8">
-        <v>0.01417830380081898</v>
+        <v>0.02391381520604792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="H9">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="I9">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="J9">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,22 +989,22 @@
         <v>0.03365</v>
       </c>
       <c r="O9">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="P9">
-        <v>0.006631810736596105</v>
+        <v>0.008324674682103805</v>
       </c>
       <c r="Q9">
-        <v>0.0002747821611111111</v>
+        <v>0.0003737729833333333</v>
       </c>
       <c r="R9">
-        <v>0.00247303945</v>
+        <v>0.00336395685</v>
       </c>
       <c r="S9">
-        <v>9.605614521806192E-05</v>
+        <v>0.0002058803135162127</v>
       </c>
       <c r="T9">
-        <v>9.605614521806192E-05</v>
+        <v>0.0002058803135162127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="H10">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="I10">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="J10">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1045,28 +1045,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.02449766666666667</v>
+        <v>0.033323</v>
       </c>
       <c r="N10">
-        <v>0.073493</v>
+        <v>0.099969</v>
       </c>
       <c r="O10">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="P10">
-        <v>0.01448415056358566</v>
+        <v>0.02473133442184949</v>
       </c>
       <c r="Q10">
-        <v>0.0006001356721111111</v>
+        <v>0.001110422329</v>
       </c>
       <c r="R10">
-        <v>0.005401221049000001</v>
+        <v>0.009993800961000001</v>
       </c>
       <c r="S10">
-        <v>0.0002097906175486189</v>
+        <v>0.0006116389022853573</v>
       </c>
       <c r="T10">
-        <v>0.0002097906175486189</v>
+        <v>0.0006116389022853573</v>
       </c>
     </row>
   </sheetData>
